--- a/out.xlsx
+++ b/out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School Stuff\College\First Year\Summer\APMA-Covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{620B3A66-D48B-4F57-B580-AB74EC05DE7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6F693004-6CB3-4801-A830-297A8996BA5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
@@ -605,7 +605,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="20"/>
-      <c:rotY val="45"/>
+      <c:rotY val="50"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
     </c:view3D>
@@ -11057,831 +11057,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000025-3090-408F-8E16-5FCCE4C926BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="38"/>
-          <c:order val="38"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>temp!$AM$1:$AM$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-3090-408F-8E16-5FCCE4C926BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="39"/>
-          <c:order val="39"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>temp!$AN$1:$AN$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-3090-408F-8E16-5FCCE4C926BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="40"/>
-          <c:order val="40"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>temp!$AO$1:$AO$82</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="82"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-3090-408F-8E16-5FCCE4C926BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12312,20 +11487,6242 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="60"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$A$42:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$B$42:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$C$42:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$D$42:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$E$42:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$F$42:$F$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$G$42:$G$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$H$42:$H$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$I$42:$I$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$J$42:$J$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$K$42:$K$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$L$42:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$M$42:$M$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$N$42:$N$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>61.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$O$42:$O$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$P$42:$P$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$Q$42:$Q$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$R$42:$R$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$S$42:$S$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$T$42:$T$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$U$42:$U$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$V$42:$V$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$W$42:$W$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$X$42:$X$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$Y$42:$Y$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>86.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$Z$42:$Z$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>88.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AA$42:$AA$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AB$42:$AB$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>94.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>94.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AC$42:$AC$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>95.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>96.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AD$42:$AD$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>96.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AE$42:$AE$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AF$42:$AF$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001F-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AG$42:$AG$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AH$42:$AH$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>99.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AI$42:$AI$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AJ$42:$AJ$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000023-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AK$42:$AK$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:val>
+            <c:numRef>
+              <c:f>temp!$AL$42:$AL$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000039-426E-4016-9F27-0A40DC33EACB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="1394216656"/>
+        <c:axId val="1477900368"/>
+        <c:axId val="1471552688"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="1394216656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477900368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1477900368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394216656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1471552688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1477900368"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>140426</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>41366</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12345,6 +17742,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>240575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8709</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD5FA6C-E75C-4916-A210-A49621C3B05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12652,8 +18087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="AO82" sqref="A1:AO82"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
